--- a/va_facility_data_2025-02-20/Sayre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sayre%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sayre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sayre%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc84f2a5a85a54570b5a15f781051a8a5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3a5e0a58b48f4771bcb609e592c5f9ed"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R42f8f035fee34488a0db86a9a1bd0394"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd6b630e0d0244773af613ee7ea3c381b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3ed61854f3b40c0aad2eba09b7e4e84"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b0d43425a6b4d2083464eb9e727afb0"/>
   </x:sheets>
 </x:workbook>
 </file>
